--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Adam17-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Adam17-Itga5.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>32.47042033333333</v>
+        <v>9.388106333333333</v>
       </c>
       <c r="H2">
-        <v>97.411261</v>
+        <v>28.164319</v>
       </c>
       <c r="I2">
-        <v>0.5240295449207956</v>
+        <v>0.2414596449149976</v>
       </c>
       <c r="J2">
-        <v>0.5240295449207955</v>
+        <v>0.2414596449149975</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>34.07074633333333</v>
+        <v>11.146846</v>
       </c>
       <c r="N2">
-        <v>102.212239</v>
+        <v>33.440538</v>
       </c>
       <c r="O2">
-        <v>0.5171464495142372</v>
+        <v>0.2594806085672136</v>
       </c>
       <c r="P2">
-        <v>0.5171464495142373</v>
+        <v>0.2594806085672136</v>
       </c>
       <c r="Q2">
-        <v>1106.291454513708</v>
+        <v>104.6477755292914</v>
       </c>
       <c r="R2">
-        <v>9956.623090623378</v>
+        <v>941.8299797636221</v>
       </c>
       <c r="S2">
-        <v>0.2710000185963509</v>
+        <v>0.06265409560696686</v>
       </c>
       <c r="T2">
-        <v>0.2710000185963509</v>
+        <v>0.06265409560696684</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>32.47042033333333</v>
+        <v>9.388106333333333</v>
       </c>
       <c r="H3">
-        <v>97.411261</v>
+        <v>28.164319</v>
       </c>
       <c r="I3">
-        <v>0.5240295449207956</v>
+        <v>0.2414596449149976</v>
       </c>
       <c r="J3">
-        <v>0.5240295449207955</v>
+        <v>0.2414596449149975</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>83.05649099999999</v>
       </c>
       <c r="O3">
-        <v>0.420227262899125</v>
+        <v>0.6444737471070977</v>
       </c>
       <c r="P3">
-        <v>0.4202272628991251</v>
+        <v>0.6444737471070977</v>
       </c>
       <c r="Q3">
-        <v>898.9597247272388</v>
+        <v>259.9143897271809</v>
       </c>
       <c r="R3">
-        <v>8090.63752254515</v>
+        <v>2339.229507544629</v>
       </c>
       <c r="S3">
-        <v>0.22021150134034</v>
+        <v>0.1556144021335177</v>
       </c>
       <c r="T3">
-        <v>0.22021150134034</v>
+        <v>0.1556144021335177</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>32.47042033333333</v>
+        <v>9.388106333333333</v>
       </c>
       <c r="H4">
-        <v>97.411261</v>
+        <v>28.164319</v>
       </c>
       <c r="I4">
-        <v>0.5240295449207956</v>
+        <v>0.2414596449149976</v>
       </c>
       <c r="J4">
-        <v>0.5240295449207955</v>
+        <v>0.2414596449149975</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>12.377873</v>
       </c>
       <c r="O4">
-        <v>0.06262628758663767</v>
+        <v>0.09604564432568881</v>
       </c>
       <c r="P4">
-        <v>0.06262628758663767</v>
+        <v>0.09604564432568881</v>
       </c>
       <c r="Q4">
-        <v>133.9715797142059</v>
+        <v>38.73492930149856</v>
       </c>
       <c r="R4">
-        <v>1205.744217427853</v>
+        <v>348.614363713487</v>
       </c>
       <c r="S4">
-        <v>0.0328180249841046</v>
+        <v>0.02319114717451297</v>
       </c>
       <c r="T4">
-        <v>0.0328180249841046</v>
+        <v>0.02319114717451297</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>67.31372999999999</v>
       </c>
       <c r="I5">
-        <v>0.3621181261458191</v>
+        <v>0.5770971896641285</v>
       </c>
       <c r="J5">
-        <v>0.362118126145819</v>
+        <v>0.5770971896641284</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>34.07074633333333</v>
+        <v>11.146846</v>
       </c>
       <c r="N5">
-        <v>102.212239</v>
+        <v>33.440538</v>
       </c>
       <c r="O5">
-        <v>0.5171464495142372</v>
+        <v>0.2594806085672136</v>
       </c>
       <c r="P5">
-        <v>0.5171464495142373</v>
+        <v>0.2594806085672136</v>
       </c>
       <c r="Q5">
-        <v>764.4763398601631</v>
+        <v>250.11192733186</v>
       </c>
       <c r="R5">
-        <v>6880.287058741468</v>
+        <v>2251.00734598674</v>
       </c>
       <c r="S5">
-        <v>0.187268103241059</v>
+        <v>0.1497455299764767</v>
       </c>
       <c r="T5">
-        <v>0.187268103241059</v>
+        <v>0.1497455299764767</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>67.31372999999999</v>
       </c>
       <c r="I6">
-        <v>0.3621181261458191</v>
+        <v>0.5770971896641285</v>
       </c>
       <c r="J6">
-        <v>0.362118126145819</v>
+        <v>0.5770971896641284</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>83.05649099999999</v>
       </c>
       <c r="O6">
-        <v>0.420227262899125</v>
+        <v>0.6444737471070977</v>
       </c>
       <c r="P6">
-        <v>0.4202272628991251</v>
+        <v>0.6444737471070977</v>
       </c>
       <c r="Q6">
         <v>621.2046899912699</v>
@@ -818,10 +818,10 @@
         <v>5590.842209921429</v>
       </c>
       <c r="S6">
-        <v>0.1521719089964176</v>
+        <v>0.3719239882678164</v>
       </c>
       <c r="T6">
-        <v>0.1521719089964176</v>
+        <v>0.3719239882678163</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>67.31372999999999</v>
       </c>
       <c r="I7">
-        <v>0.3621181261458191</v>
+        <v>0.5770971896641285</v>
       </c>
       <c r="J7">
-        <v>0.362118126145819</v>
+        <v>0.5770971896641284</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>12.377873</v>
       </c>
       <c r="O7">
-        <v>0.06262628758663767</v>
+        <v>0.09604564432568881</v>
       </c>
       <c r="P7">
-        <v>0.06262628758663767</v>
+        <v>0.09604564432568881</v>
       </c>
       <c r="Q7">
         <v>92.57786678847667</v>
@@ -880,10 +880,10 @@
         <v>833.20080109629</v>
       </c>
       <c r="S7">
-        <v>0.0226781139083424</v>
+        <v>0.05542767141983546</v>
       </c>
       <c r="T7">
-        <v>0.0226781139083424</v>
+        <v>0.05542767141983545</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>21.163881</v>
       </c>
       <c r="I8">
-        <v>0.1138523289333856</v>
+        <v>0.181443165420874</v>
       </c>
       <c r="J8">
-        <v>0.1138523289333855</v>
+        <v>0.1814431654208739</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>34.07074633333333</v>
+        <v>11.146846</v>
       </c>
       <c r="N8">
-        <v>102.212239</v>
+        <v>33.440538</v>
       </c>
       <c r="O8">
-        <v>0.5171464495142372</v>
+        <v>0.2594806085672136</v>
       </c>
       <c r="P8">
-        <v>0.5171464495142373</v>
+        <v>0.2594806085672136</v>
       </c>
       <c r="Q8">
-        <v>240.3564069932843</v>
+        <v>78.63684075644201</v>
       </c>
       <c r="R8">
-        <v>2163.207662939559</v>
+        <v>707.7315668079781</v>
       </c>
       <c r="S8">
-        <v>0.05887832767682739</v>
+        <v>0.04708098298376998</v>
       </c>
       <c r="T8">
-        <v>0.0588783276768274</v>
+        <v>0.04708098298376997</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>21.163881</v>
       </c>
       <c r="I9">
-        <v>0.1138523289333856</v>
+        <v>0.181443165420874</v>
       </c>
       <c r="J9">
-        <v>0.1138523289333855</v>
+        <v>0.1814431654208739</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>83.05649099999999</v>
       </c>
       <c r="O9">
-        <v>0.420227262899125</v>
+        <v>0.6444737471070977</v>
       </c>
       <c r="P9">
-        <v>0.4202272628991251</v>
+        <v>0.6444737471070977</v>
       </c>
       <c r="Q9">
         <v>195.310854644619</v>
@@ -1004,10 +1004,10 @@
         <v>1757.797691801571</v>
       </c>
       <c r="S9">
-        <v>0.04784385256236747</v>
+        <v>0.1169353567057636</v>
       </c>
       <c r="T9">
-        <v>0.04784385256236747</v>
+        <v>0.1169353567057636</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>21.163881</v>
       </c>
       <c r="I10">
-        <v>0.1138523289333856</v>
+        <v>0.181443165420874</v>
       </c>
       <c r="J10">
-        <v>0.1138523289333855</v>
+        <v>0.1814431654208739</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>12.377873</v>
       </c>
       <c r="O10">
-        <v>0.06262628758663767</v>
+        <v>0.09604564432568881</v>
       </c>
       <c r="P10">
-        <v>0.06262628758663767</v>
+        <v>0.09604564432568881</v>
       </c>
       <c r="Q10">
         <v>29.10709235612367</v>
@@ -1066,10 +1066,10 @@
         <v>261.963831205113</v>
       </c>
       <c r="S10">
-        <v>0.007130148694190673</v>
+        <v>0.01742682573134038</v>
       </c>
       <c r="T10">
-        <v>0.007130148694190672</v>
+        <v>0.01742682573134038</v>
       </c>
     </row>
   </sheetData>
